--- a/src/test/resources/SDET_19.xlsx
+++ b/src/test/resources/SDET_19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14175" windowHeight="6420"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13995" windowHeight="6420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Meeting ID</t>
   </si>
@@ -32,6 +32,30 @@
   </si>
   <si>
     <t>123654</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>JAPAN</t>
+  </si>
+  <si>
+    <t>SDet18</t>
+  </si>
+  <si>
+    <t>sdet19</t>
   </si>
 </sst>
 </file>
@@ -366,7 +390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -405,12 +429,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
